--- a/workspace/data/5月/大客户部-薪酬表.xlsx
+++ b/workspace/data/5月/大客户部-薪酬表.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_name=&quot;sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,11 +487,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>徐文</t>
+          <t>蔡金凤</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8400</v>
+        <v>17400</v>
       </c>
       <c r="E2" t="n">
-        <v>2800</v>
+        <v>5800</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="G2" t="n">
-        <v>1178</v>
+        <v>1610</v>
       </c>
       <c r="H2" t="n">
         <v>500</v>
@@ -518,16 +518,16 @@
         <v>200</v>
       </c>
       <c r="J2" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>梁桂英</t>
+          <t>宋燕</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23400</v>
+        <v>9600</v>
       </c>
       <c r="E3" t="n">
-        <v>7800</v>
+        <v>3200</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="G3" t="n">
-        <v>517</v>
+        <v>103</v>
       </c>
       <c r="H3" t="n">
         <v>500</v>
@@ -554,16 +554,16 @@
         <v>200</v>
       </c>
       <c r="J3" t="n">
-        <v>1950</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>王桂芝</t>
+          <t>张杨</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -572,16 +572,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E4" t="n">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="F4" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="G4" t="n">
-        <v>1298</v>
+        <v>1315</v>
       </c>
       <c r="H4" t="n">
         <v>500</v>
@@ -595,11 +595,11 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>夏玉兰</t>
+          <t>傅阳</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -608,16 +608,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21600</v>
+        <v>2400</v>
       </c>
       <c r="E5" t="n">
-        <v>7200</v>
+        <v>800</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>323</v>
+        <v>1143</v>
       </c>
       <c r="H5" t="n">
         <v>500</v>
@@ -626,16 +626,16 @@
         <v>200</v>
       </c>
       <c r="J5" t="n">
-        <v>1800</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>汪娟</t>
+          <t>庄东</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4800</v>
+        <v>22200</v>
       </c>
       <c r="E6" t="n">
-        <v>1600</v>
+        <v>7400</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1698</v>
+        <v>1899</v>
       </c>
       <c r="H6" t="n">
         <v>500</v>
@@ -662,16 +662,16 @@
         <v>200</v>
       </c>
       <c r="J6" t="n">
-        <v>800</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>李春梅</t>
+          <t>卢小红</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10800</v>
+        <v>14400</v>
       </c>
       <c r="E7" t="n">
-        <v>3600</v>
+        <v>4800</v>
       </c>
       <c r="F7" t="n">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>443</v>
+        <v>386</v>
       </c>
       <c r="H7" t="n">
         <v>500</v>
@@ -698,16 +698,16 @@
         <v>200</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>姚红霞</t>
+          <t>王鑫</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -716,16 +716,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>6000</v>
+        <v>4200</v>
       </c>
       <c r="E8" t="n">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1352</v>
+        <v>442</v>
       </c>
       <c r="H8" t="n">
         <v>500</v>
@@ -734,7 +734,7 @@
         <v>200</v>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -743,7 +743,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>刘倩</t>
+          <t>麦建平</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,34 +752,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9600</v>
+        <v>19200</v>
       </c>
       <c r="E9" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1956</v>
+      </c>
+      <c r="H9" t="n">
+        <v>500</v>
+      </c>
+      <c r="I9" t="n">
+        <v>200</v>
+      </c>
+      <c r="J9" t="n">
         <v>3200</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G9" t="n">
-        <v>127</v>
-      </c>
-      <c r="H9" t="n">
-        <v>500</v>
-      </c>
-      <c r="I9" t="n">
-        <v>200</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>罗秀兰</t>
+          <t>王雷</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -788,16 +788,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>9000</v>
+        <v>13800</v>
       </c>
       <c r="E10" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="G10" t="n">
-        <v>565</v>
+        <v>243</v>
       </c>
       <c r="H10" t="n">
         <v>500</v>
@@ -806,16 +806,16 @@
         <v>200</v>
       </c>
       <c r="J10" t="n">
-        <v>750</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>仲芳</t>
+          <t>康金凤</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4800</v>
+        <v>7200</v>
       </c>
       <c r="E11" t="n">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="F11" t="n">
-        <v>800</v>
+        <v>2400</v>
       </c>
       <c r="G11" t="n">
-        <v>1178</v>
+        <v>1110</v>
       </c>
       <c r="H11" t="n">
         <v>500</v>
@@ -842,16 +842,16 @@
         <v>200</v>
       </c>
       <c r="J11" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>赵浩</t>
+          <t>谷淑兰</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9600</v>
+        <v>22800</v>
       </c>
       <c r="E12" t="n">
-        <v>3200</v>
+        <v>7600</v>
       </c>
       <c r="F12" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1990</v>
+        <v>1483</v>
       </c>
       <c r="H12" t="n">
         <v>500</v>
@@ -883,11 +883,11 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>符红梅</t>
+          <t>蒋红梅</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -896,16 +896,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>12600</v>
+        <v>23400</v>
       </c>
       <c r="E13" t="n">
-        <v>4200</v>
+        <v>7800</v>
       </c>
       <c r="F13" t="n">
-        <v>2100</v>
+        <v>3900</v>
       </c>
       <c r="G13" t="n">
-        <v>469</v>
+        <v>1385</v>
       </c>
       <c r="H13" t="n">
         <v>500</v>
@@ -914,16 +914,16 @@
         <v>200</v>
       </c>
       <c r="J13" t="n">
-        <v>2100</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1038</v>
+        <v>1049</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>赵欢</t>
+          <t>王强</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -932,25 +932,1609 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1860</v>
+      </c>
+      <c r="H14" t="n">
+        <v>500</v>
+      </c>
+      <c r="I14" t="n">
+        <v>200</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>李春梅</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>13200</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1249</v>
+      </c>
+      <c r="H15" t="n">
+        <v>500</v>
+      </c>
+      <c r="I15" t="n">
+        <v>200</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>袁琴</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>16200</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5400</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G16" t="n">
+        <v>863</v>
+      </c>
+      <c r="H16" t="n">
+        <v>500</v>
+      </c>
+      <c r="I16" t="n">
+        <v>200</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>吕桂香</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2400</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G17" t="n">
+        <v>248</v>
+      </c>
+      <c r="H17" t="n">
+        <v>500</v>
+      </c>
+      <c r="I17" t="n">
+        <v>200</v>
+      </c>
+      <c r="J17" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>王艳</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>463</v>
+      </c>
+      <c r="H18" t="n">
+        <v>500</v>
+      </c>
+      <c r="I18" t="n">
+        <v>200</v>
+      </c>
+      <c r="J18" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>袁婷</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20400</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6800</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1378</v>
+      </c>
+      <c r="H19" t="n">
+        <v>500</v>
+      </c>
+      <c r="I19" t="n">
+        <v>200</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>孔桂珍</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>13800</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4600</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G20" t="n">
+        <v>391</v>
+      </c>
+      <c r="H20" t="n">
+        <v>500</v>
+      </c>
+      <c r="I20" t="n">
+        <v>200</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>鲁兵</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20400</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6800</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G21" t="n">
+        <v>681</v>
+      </c>
+      <c r="H21" t="n">
+        <v>500</v>
+      </c>
+      <c r="I21" t="n">
+        <v>200</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>宋红梅</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>16800</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5600</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1875</v>
+      </c>
+      <c r="H22" t="n">
+        <v>500</v>
+      </c>
+      <c r="I22" t="n">
+        <v>200</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>王婷</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>13200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1825</v>
+      </c>
+      <c r="H23" t="n">
+        <v>500</v>
+      </c>
+      <c r="I23" t="n">
+        <v>200</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>何丽丽</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>619</v>
+      </c>
+      <c r="H24" t="n">
+        <v>500</v>
+      </c>
+      <c r="I24" t="n">
+        <v>200</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>董桂英</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2600</v>
+      </c>
+      <c r="G25" t="n">
+        <v>169</v>
+      </c>
+      <c r="H25" t="n">
+        <v>500</v>
+      </c>
+      <c r="I25" t="n">
+        <v>200</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1093</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>温彬</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>15600</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5200</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1278</v>
+      </c>
+      <c r="H26" t="n">
+        <v>500</v>
+      </c>
+      <c r="I26" t="n">
+        <v>200</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1098</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>姜淑华</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>8400</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1780</v>
+      </c>
+      <c r="H27" t="n">
+        <v>500</v>
+      </c>
+      <c r="I27" t="n">
+        <v>200</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1102</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>吴龙</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>21600</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G28" t="n">
+        <v>440</v>
+      </c>
+      <c r="H28" t="n">
+        <v>500</v>
+      </c>
+      <c r="I28" t="n">
+        <v>200</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1107</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>陈桂芝</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>718</v>
+      </c>
+      <c r="H29" t="n">
+        <v>500</v>
+      </c>
+      <c r="I29" t="n">
+        <v>200</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1108</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>张小红</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>22200</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7400</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3700</v>
+      </c>
+      <c r="G30" t="n">
+        <v>461</v>
+      </c>
+      <c r="H30" t="n">
+        <v>500</v>
+      </c>
+      <c r="I30" t="n">
+        <v>200</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1112</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>刘玉英</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>19200</v>
+      </c>
+      <c r="E31" t="n">
+        <v>6400</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1654</v>
+      </c>
+      <c r="H31" t="n">
+        <v>500</v>
+      </c>
+      <c r="I31" t="n">
+        <v>200</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>刘俊</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>14400</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4800</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1084</v>
+      </c>
+      <c r="H32" t="n">
+        <v>500</v>
+      </c>
+      <c r="I32" t="n">
+        <v>200</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1121</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>陈瑞</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1212</v>
+      </c>
+      <c r="H33" t="n">
+        <v>500</v>
+      </c>
+      <c r="I33" t="n">
+        <v>200</v>
+      </c>
+      <c r="J33" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1125</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>吴涛</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>21600</v>
+      </c>
+      <c r="E34" t="n">
+        <v>7200</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1056</v>
+      </c>
+      <c r="H34" t="n">
+        <v>500</v>
+      </c>
+      <c r="I34" t="n">
+        <v>200</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1126</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>曹红</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8400</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2800</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1457</v>
+      </c>
+      <c r="H35" t="n">
+        <v>500</v>
+      </c>
+      <c r="I35" t="n">
+        <v>200</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>林杨</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1978</v>
+      </c>
+      <c r="H36" t="n">
+        <v>500</v>
+      </c>
+      <c r="I36" t="n">
+        <v>200</v>
+      </c>
+      <c r="J36" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1132</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>赵玉英</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1582</v>
+      </c>
+      <c r="H37" t="n">
+        <v>500</v>
+      </c>
+      <c r="I37" t="n">
+        <v>200</v>
+      </c>
+      <c r="J37" t="n">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1133</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>阎建华</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>17400</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5800</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>520</v>
+      </c>
+      <c r="H38" t="n">
+        <v>500</v>
+      </c>
+      <c r="I38" t="n">
+        <v>200</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1134</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>鞠秀英</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F39" t="n">
+        <v>900</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1131</v>
+      </c>
+      <c r="H39" t="n">
+        <v>500</v>
+      </c>
+      <c r="I39" t="n">
+        <v>200</v>
+      </c>
+      <c r="J39" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1137</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>廖瑞</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4800</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1600</v>
+      </c>
+      <c r="F40" t="n">
+        <v>800</v>
+      </c>
+      <c r="G40" t="n">
+        <v>813</v>
+      </c>
+      <c r="H40" t="n">
+        <v>500</v>
+      </c>
+      <c r="I40" t="n">
+        <v>200</v>
+      </c>
+      <c r="J40" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1138</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>冉斌</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>23400</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7800</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7800</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H41" t="n">
+        <v>500</v>
+      </c>
+      <c r="I41" t="n">
+        <v>200</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1143</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>林桂荣</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F42" t="n">
+        <v>600</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1596</v>
+      </c>
+      <c r="H42" t="n">
+        <v>500</v>
+      </c>
+      <c r="I42" t="n">
+        <v>200</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1149</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>任雪梅</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>18000</v>
+      </c>
+      <c r="E43" t="n">
         <v>6000</v>
       </c>
-      <c r="E14" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1239</v>
-      </c>
-      <c r="H14" t="n">
-        <v>500</v>
-      </c>
-      <c r="I14" t="n">
-        <v>200</v>
-      </c>
-      <c r="J14" t="n">
-        <v>500</v>
+      <c r="F43" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1704</v>
+      </c>
+      <c r="H43" t="n">
+        <v>500</v>
+      </c>
+      <c r="I43" t="n">
+        <v>200</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1150</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>张英</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1262</v>
+      </c>
+      <c r="H44" t="n">
+        <v>500</v>
+      </c>
+      <c r="I44" t="n">
+        <v>200</v>
+      </c>
+      <c r="J44" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1151</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>庄梅</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>13200</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G45" t="n">
+        <v>564</v>
+      </c>
+      <c r="H45" t="n">
+        <v>500</v>
+      </c>
+      <c r="I45" t="n">
+        <v>200</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1154</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>郭林</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>23400</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7800</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>723</v>
+      </c>
+      <c r="H46" t="n">
+        <v>500</v>
+      </c>
+      <c r="I46" t="n">
+        <v>200</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1157</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>李杰</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>13800</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4600</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2300</v>
+      </c>
+      <c r="G47" t="n">
+        <v>935</v>
+      </c>
+      <c r="H47" t="n">
+        <v>500</v>
+      </c>
+      <c r="I47" t="n">
+        <v>200</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1162</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>蒋桂兰</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>13200</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4400</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1979</v>
+      </c>
+      <c r="H48" t="n">
+        <v>500</v>
+      </c>
+      <c r="I48" t="n">
+        <v>200</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1165</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>周淑英</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E49" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>950</v>
+      </c>
+      <c r="H49" t="n">
+        <v>500</v>
+      </c>
+      <c r="I49" t="n">
+        <v>200</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1169</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>黄桂英</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>11400</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3800</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1683</v>
+      </c>
+      <c r="H50" t="n">
+        <v>500</v>
+      </c>
+      <c r="I50" t="n">
+        <v>200</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1179</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>揭莹</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>18600</v>
+      </c>
+      <c r="E51" t="n">
+        <v>6200</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3100</v>
+      </c>
+      <c r="G51" t="n">
+        <v>590</v>
+      </c>
+      <c r="H51" t="n">
+        <v>500</v>
+      </c>
+      <c r="I51" t="n">
+        <v>200</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1180</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>张兰英</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E52" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1623</v>
+      </c>
+      <c r="H52" t="n">
+        <v>500</v>
+      </c>
+      <c r="I52" t="n">
+        <v>200</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1182</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>傅龙</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3600</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1200</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1292</v>
+      </c>
+      <c r="H53" t="n">
+        <v>500</v>
+      </c>
+      <c r="I53" t="n">
+        <v>200</v>
+      </c>
+      <c r="J53" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1185</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>赵淑珍</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>19800</v>
+      </c>
+      <c r="E54" t="n">
+        <v>6600</v>
+      </c>
+      <c r="F54" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1098</v>
+      </c>
+      <c r="H54" t="n">
+        <v>500</v>
+      </c>
+      <c r="I54" t="n">
+        <v>200</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1190</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>卢鑫</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>10800</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1096</v>
+      </c>
+      <c r="H55" t="n">
+        <v>500</v>
+      </c>
+      <c r="I55" t="n">
+        <v>200</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1194</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>宋秀芳</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>7800</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2600</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1300</v>
+      </c>
+      <c r="G56" t="n">
+        <v>183</v>
+      </c>
+      <c r="H56" t="n">
+        <v>500</v>
+      </c>
+      <c r="I56" t="n">
+        <v>200</v>
+      </c>
+      <c r="J56" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1197</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>刘芳</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>16800</v>
+      </c>
+      <c r="E57" t="n">
+        <v>5600</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2800</v>
+      </c>
+      <c r="G57" t="n">
+        <v>623</v>
+      </c>
+      <c r="H57" t="n">
+        <v>500</v>
+      </c>
+      <c r="I57" t="n">
+        <v>200</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1198</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>刘峰</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大客户部</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>21000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>7000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1413</v>
+      </c>
+      <c r="H58" t="n">
+        <v>500</v>
+      </c>
+      <c r="I58" t="n">
+        <v>200</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
